--- a/temp_doc/FORMAAT SOAL.xlsx
+++ b/temp_doc/FORMAAT SOAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D29F1A6-5BDE-5449-B87E-4851DED7ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A384CB61-FD4A-8D48-BA2D-573AA1C6256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{B896FFFA-19AA-8E45-A405-33E3E7B3C67E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,22 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>{2,4}</t>
-  </si>
-  <si>
-    <t>{1,2}</t>
-  </si>
-  <si>
-    <t>{4,-2}</t>
-  </si>
-  <si>
-    <t>{-1,2}</t>
-  </si>
-  <si>
-    <t>{-1,4}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
   <si>
     <t>id_soal</t>
   </si>
@@ -103,46 +88,22 @@
     <t>kunci</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Himpunan penyelesaian dari 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>𝑥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t xml:space="preserve"> 2−3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>𝑥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t xml:space="preserve"> = 16 adalah ....</t>
-    </r>
+    <t>Bahasa pemrograman</t>
   </si>
   <si>
-    <t xml:space="preserve"> {-1,4}</t>
+    <t>Urutan langkah logis untuk menyelesaikan masalah</t>
+  </si>
+  <si>
+    <t>Perangkat keras komputer</t>
+  </si>
+  <si>
+    <t>Data yang tersimpan di memori</t>
+  </si>
+  <si>
+    <t>Perintah dalam sistem operasi</t>
+  </si>
+  <si>
+    <t>Algoritma adalah …</t>
   </si>
 </sst>
 </file>
@@ -170,10 +131,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria Math"/>
-      <family val="1"/>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF858796"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,10 +158,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1531,78 +1499,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B6A89B-308D-3D43-BC16-048927EF42F0}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2">
-        <v>17600132917391</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4">
+        <v>35625008</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="4">
+        <v>35625008</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="4">
+        <v>35625008</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="4">
+        <v>35625008</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="4">
+        <v>35625008</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="4">
+        <v>35625008</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="4">
+        <v>35625008</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="4">
+        <v>35625008</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="4">
+        <v>35625008</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1616,52 +1819,52 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="str" cm="1">
         <f t="array" ref="A7:E7">TRANSPOSE(A1:A5)</f>
-        <v>{2,4}</v>
+        <v>Bahasa pemrograman</v>
       </c>
       <c r="B7" t="str">
-        <v>{1,2}</v>
+        <v>Urutan langkah logis untuk menyelesaikan masalah</v>
       </c>
       <c r="C7" t="str">
-        <v>{4,-2}</v>
+        <v>Perangkat keras komputer</v>
       </c>
       <c r="D7" t="str">
-        <v>{-1,2}</v>
+        <v>Data yang tersimpan di memori</v>
       </c>
       <c r="E7" t="str">
-        <v>{-1,4}</v>
+        <v>Perintah dalam sistem operasi</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/FORMAAT SOAL.xlsx
+++ b/temp_doc/FORMAAT SOAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A384CB61-FD4A-8D48-BA2D-573AA1C6256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907C5DF-F7A2-8246-AD76-343237889FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{B896FFFA-19AA-8E45-A405-33E3E7B3C67E}"/>
   </bookViews>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1552,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="4">
-        <v>35625008</v>
+        <v>45996025</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1581,7 +1581,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="4">
-        <v>35625008</v>
+        <v>45996025</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -1610,7 +1610,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="4">
-        <v>35625008</v>
+        <v>45996025</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -1639,7 +1639,7 @@
         <v>1004</v>
       </c>
       <c r="B5" s="4">
-        <v>35625008</v>
+        <v>45996025</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1668,7 +1668,7 @@
         <v>1005</v>
       </c>
       <c r="B6" s="4">
-        <v>35625008</v>
+        <v>45996025</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -1697,7 +1697,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="4">
-        <v>35625008</v>
+        <v>45996025</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -1726,7 +1726,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="4">
-        <v>35625008</v>
+        <v>45996025</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -1755,7 +1755,7 @@
         <v>1008</v>
       </c>
       <c r="B9" s="4">
-        <v>35625008</v>
+        <v>45996025</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -1784,7 +1784,7 @@
         <v>1009</v>
       </c>
       <c r="B10" s="4">
-        <v>35625008</v>
+        <v>45996025</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>

--- a/temp_doc/FORMAAT SOAL.xlsx
+++ b/temp_doc/FORMAAT SOAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907C5DF-F7A2-8246-AD76-343237889FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B1F6C-E90A-ED4C-B9A8-46AB0F6D44BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{B896FFFA-19AA-8E45-A405-33E3E7B3C67E}"/>
   </bookViews>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B2" s="4">
-        <v>45996025</v>
+        <v>78362161</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="B3" s="4">
-        <v>45996025</v>
+        <v>78362161</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="B4" s="4">
-        <v>45996025</v>
+        <v>78362161</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="5" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="B5" s="4">
-        <v>45996025</v>
+        <v>78362161</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="B6" s="4">
-        <v>45996025</v>
+        <v>78362161</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="B7" s="4">
-        <v>45996025</v>
+        <v>78362161</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="B8" s="4">
-        <v>45996025</v>
+        <v>78362161</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="B9" s="4">
-        <v>45996025</v>
+        <v>78362161</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -1781,10 +1781,10 @@
     </row>
     <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="B10" s="4">
-        <v>45996025</v>
+        <v>78362161</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>

--- a/temp_doc/FORMAAT SOAL.xlsx
+++ b/temp_doc/FORMAAT SOAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B1F6C-E90A-ED4C-B9A8-46AB0F6D44BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB27F4-52F3-3D4F-8511-90B0911A8466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{B896FFFA-19AA-8E45-A405-33E3E7B3C67E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="B2" s="4">
-        <v>78362161</v>
+        <v>97719772</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="B3" s="4">
-        <v>78362161</v>
+        <v>97719772</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="B4" s="4">
-        <v>78362161</v>
+        <v>97719772</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="5" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="B5" s="4">
-        <v>78362161</v>
+        <v>97719772</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="B6" s="4">
-        <v>78362161</v>
+        <v>97719772</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="B7" s="4">
-        <v>78362161</v>
+        <v>97719772</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="B8" s="4">
-        <v>78362161</v>
+        <v>97719772</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="B9" s="4">
-        <v>78362161</v>
+        <v>97719772</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -1781,10 +1781,10 @@
     </row>
     <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="B10" s="4">
-        <v>78362161</v>
+        <v>97719772</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
